--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -481,157 +481,157 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-31</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -681,27 +681,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -726,52 +726,52 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Present</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>------</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -891,52 +891,52 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -991,17 +991,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1056,52 +1056,52 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1221,52 +1221,52 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1386,52 +1386,52 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1521,24 +1521,24 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -1551,52 +1551,52 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1686,82 +1686,82 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1851,82 +1851,82 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2016,82 +2016,82 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2181,69 +2181,69 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2346,69 +2346,69 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2511,69 +2511,69 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2676,12 +2676,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2701,44 +2701,44 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z14" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2806,12 +2806,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2866,44 +2866,44 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3031,44 +3031,44 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3196,44 +3196,44 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3666,12 +3666,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3831,12 +3831,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4031,12 +4031,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -4126,12 +4126,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4326,12 +4326,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4491,12 +4491,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4786,12 +4786,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4821,12 +4821,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -4856,12 +4856,12 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5151,12 +5151,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5516,12 +5516,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5551,12 +5551,12 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5611,12 +5611,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6106,12 +6106,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6211,12 +6211,12 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6271,12 +6271,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6306,12 +6306,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6341,12 +6341,12 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6436,12 +6436,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -6671,12 +6671,12 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6966,12 +6966,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -7001,12 +7001,12 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7096,12 +7096,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -7131,12 +7131,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -7166,12 +7166,12 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -7201,12 +7201,12 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7261,12 +7261,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7296,12 +7296,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -7331,12 +7331,12 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7461,12 +7461,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -7591,12 +7591,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -7661,12 +7661,12 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -7696,12 +7696,12 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7921,12 +7921,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7956,12 +7956,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -7991,12 +7991,12 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8121,12 +8121,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -8191,12 +8191,12 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8251,12 +8251,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8286,12 +8286,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -8486,12 +8486,12 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -8521,12 +8521,12 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -8581,12 +8581,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -8651,12 +8651,12 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -8686,12 +8686,12 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -8746,12 +8746,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8781,12 +8781,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -8851,12 +8851,12 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8946,12 +8946,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -8981,12 +8981,12 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -9016,12 +9016,12 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9076,12 +9076,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -9111,12 +9111,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -9146,12 +9146,12 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9181,12 +9181,12 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9241,12 +9241,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9276,12 +9276,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -9311,12 +9311,12 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -9346,12 +9346,12 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -9511,12 +9511,12 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9571,12 +9571,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -9606,12 +9606,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -9641,12 +9641,12 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -9676,12 +9676,12 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -9771,12 +9771,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -9806,12 +9806,12 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -9841,12 +9841,12 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -9901,12 +9901,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -9936,12 +9936,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -9971,12 +9971,12 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -10006,12 +10006,12 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10066,12 +10066,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10136,12 +10136,12 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -10171,12 +10171,12 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10231,12 +10231,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -10266,12 +10266,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10301,12 +10301,12 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -10336,12 +10336,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -10396,12 +10396,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -10431,12 +10431,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10466,12 +10466,12 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10561,12 +10561,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -10596,12 +10596,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10631,12 +10631,12 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -10666,12 +10666,12 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -10726,12 +10726,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -10761,12 +10761,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -10796,12 +10796,12 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -10831,12 +10831,12 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -10961,12 +10961,12 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11056,12 +11056,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11091,12 +11091,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11221,12 +11221,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -11256,12 +11256,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11291,12 +11291,12 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -11326,12 +11326,12 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -11386,12 +11386,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -11421,12 +11421,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11456,12 +11456,12 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -11491,12 +11491,12 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11551,12 +11551,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -11586,12 +11586,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11621,12 +11621,12 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -11716,12 +11716,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -11751,12 +11751,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11786,12 +11786,12 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -11881,12 +11881,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -11916,12 +11916,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11951,12 +11951,12 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -11986,12 +11986,12 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -12046,12 +12046,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -12081,12 +12081,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -12116,12 +12116,12 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -12151,12 +12151,12 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -12211,12 +12211,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -12246,12 +12246,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -12281,12 +12281,12 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -12316,12 +12316,12 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -12376,12 +12376,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -12411,12 +12411,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -12481,12 +12481,12 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -12541,12 +12541,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12596,49 +12596,49 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z74" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -12646,12 +12646,12 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -12706,12 +12706,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -12741,12 +12741,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12761,49 +12761,49 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z75" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -12811,12 +12811,12 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -12906,12 +12906,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12926,49 +12926,49 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>------</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
       <c r="Z76" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -12976,12 +12976,12 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -13036,12 +13036,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -13071,12 +13071,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -13106,12 +13106,12 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -13141,12 +13141,12 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -13201,12 +13201,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -13236,12 +13236,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -13271,12 +13271,12 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -13306,12 +13306,12 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -13366,12 +13366,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -13401,12 +13401,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -13436,12 +13436,12 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -13531,12 +13531,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -13566,12 +13566,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -13601,12 +13601,12 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -13636,12 +13636,12 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -13696,12 +13696,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -13731,12 +13731,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -13766,12 +13766,12 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -13801,12 +13801,12 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -13861,12 +13861,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -13896,12 +13896,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -13931,12 +13931,12 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -13966,12 +13966,12 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -14026,12 +14026,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -14061,12 +14061,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -14096,12 +14096,12 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -14131,12 +14131,12 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -14191,12 +14191,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -14356,12 +14356,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -14391,12 +14391,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -14426,12 +14426,12 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -14461,12 +14461,12 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">

--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -481,157 +481,157 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-05</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -696,32 +696,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -731,22 +731,22 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,17 +776,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,37 +856,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -896,17 +896,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -921,37 +921,37 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -986,27 +986,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1021,37 +1021,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1061,17 +1061,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1086,37 +1086,37 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1151,27 +1151,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1316,27 +1316,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1356,22 +1356,22 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1481,22 +1481,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3131,12 +3131,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5386,17 +5386,17 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -6431,12 +6431,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -6761,12 +6761,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7091,12 +7091,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -9146,7 +9146,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -10016,17 +10016,17 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -10181,17 +10181,17 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -11326,7 +11326,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -12221,12 +12221,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -12386,12 +12386,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -12551,12 +12551,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12716,12 +12716,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12881,12 +12881,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -13106,7 +13106,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD80" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -13696,7 +13696,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -13811,17 +13811,17 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD83" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -14426,7 +14426,7 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">

--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -481,157 +481,157 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
@@ -656,27 +656,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -761,42 +761,42 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -926,42 +926,42 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1091,42 +1091,42 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1231,22 +1231,22 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1271,27 +1271,27 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1386,27 +1386,27 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1446,17 +1446,17 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1716,27 +1716,27 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1881,27 +1881,27 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2046,22 +2046,22 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2211,22 +2211,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2376,22 +2376,22 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2541,22 +2541,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3201,22 +3201,22 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3366,22 +3366,22 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3531,22 +3531,22 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3696,22 +3696,22 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -4036,12 +4036,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4366,12 +4366,12 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5026,12 +5026,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -5191,12 +5191,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -5341,12 +5341,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -5686,12 +5686,12 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -6346,12 +6346,12 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -7171,17 +7171,17 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -7831,12 +7831,12 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -7996,12 +7996,12 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -8491,12 +8491,12 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -9481,12 +9481,12 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -9811,12 +9811,12 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -9966,22 +9966,22 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -10016,17 +10016,17 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10131,22 +10131,22 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -10181,17 +10181,17 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -10306,12 +10306,12 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -10471,12 +10471,12 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -10966,12 +10966,12 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -11131,12 +11131,12 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -12121,12 +12121,12 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12201,12 +12201,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12366,12 +12366,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -12451,12 +12451,12 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12531,12 +12531,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -12606,22 +12606,22 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12696,12 +12696,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -12771,22 +12771,22 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -12861,12 +12861,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -12936,22 +12936,22 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -13101,22 +13101,22 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -13266,22 +13266,22 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -13441,12 +13441,12 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -13606,12 +13606,12 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD80" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -13761,22 +13761,22 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -13811,17 +13811,17 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -13936,12 +13936,12 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -13961,7 +13961,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -14101,12 +14101,12 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD83" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -14266,12 +14266,12 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>------</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>------</t>
         </is>
       </c>
     </row>

--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -461,57 +461,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-11-15</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1596,12 +1596,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1726,12 +1726,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3611,12 +3611,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3806,12 +3806,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4326,12 +4326,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4391,12 +4391,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4651,12 +4651,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5366,12 +5366,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5561,12 +5561,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5756,12 +5756,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Holiday(F)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(F)</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">

--- a/students/management/BBA(CA) -SY.xlsx
+++ b/students/management/BBA(CA) -SY.xlsx
@@ -481,157 +481,157 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1161,22 +1161,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1446,12 +1446,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2316,12 +2316,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3756,12 +3756,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6781,12 +6781,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -13221,122 +13221,122 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>Holiday(S)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Holiday(S)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Holiday(S)</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>Holiday(S)</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
           <t>Present</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Holiday(S)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>Holiday(S)</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>Holiday(S)</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AD78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AE78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AF78" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AG78" t="inlineStr">
-        <is>
-          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -13606,7 +13606,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -13716,7 +13716,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -13866,7 +13866,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -13936,7 +13936,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -14046,7 +14046,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -14376,7 +14376,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -14411,7 +14411,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>Holiday(S)</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Holiday(S)</t>
         </is>
       </c>
       <c r="AF86" t="inlineStr">
